--- a/Örnek 5 - Fatura - İşlem.xlsx
+++ b/Örnek 5 - Fatura - İşlem.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{745750EC-6E1E-463D-9577-34E903AC3F5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,238 +22,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>q</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t>q:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-Düzenleme tarihi
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t>q:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-Düzenleme saati</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t>q:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-Fiili sevk tarihi
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t>q:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-Fiili sevk tarihi
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t>q:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-cinsi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t>q:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-miktar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t>q:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-birim</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t>q:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-fiyatı</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t>q:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-tutar
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>BULGUR</t>
   </si>
@@ -363,32 +128,25 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>Kübra Çabuk</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#,##0\ &quot;TL&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;TL&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="162"/>
     </font>
     <font>
@@ -397,12 +155,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -520,22 +272,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -545,49 +309,28 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -653,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,7 +431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,21 +608,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
@@ -888,330 +631,375 @@
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="20"/>
-      <c r="G4" s="24" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="17"/>
+      <c r="G4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3424523</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="20"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="17"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="21"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="18"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.25">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.25">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>450000</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="E8" s="10">
+        <f>(B8*D8)</f>
+        <v>2250000</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.25">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>50</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>275000</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="E9" s="10">
+        <f t="shared" ref="E9:E20" si="0">(B9*D9)</f>
+        <v>13750000</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.25">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>2000000</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>8000000</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.25">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>15</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>1250000</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>18750000</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="H11" s="22">
+        <v>20215070019</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>15</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1350000</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="G12" s="22" t="s">
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>20250000</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="H12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25">
+      <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>15</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>1000000</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>15000000</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="H13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.25">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>975000</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>9750000</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.25">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>1300000</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>3900000</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.25">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>4500000</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.25">
+      <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>24</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>475000</v>
       </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>11400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.25">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>48</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>500000</v>
       </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.25">
+      <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>20</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>1350000</v>
       </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.25">
+      <c r="A20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="10">
+        <f>SUM(E8:E19)</f>
+        <v>158550000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1225,6 +1013,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>